--- a/user-data/oda-per-poor-person-constant/oda-per-poor-person-constant.xlsx
+++ b/user-data/oda-per-poor-person-constant/oda-per-poor-person-constant.xlsx
@@ -1150,7 +1150,7 @@
     <t xml:space="preserve">Units of measure: constant 2016 US$</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 71</t>
+    <t xml:space="preserve">Source: 72</t>
   </si>
   <si>
     <t xml:space="preserve">Source-link: 1</t>

--- a/user-data/oda-per-poor-person-constant/oda-per-poor-person-constant.xlsx
+++ b/user-data/oda-per-poor-person-constant/oda-per-poor-person-constant.xlsx
@@ -1150,7 +1150,7 @@
     <t xml:space="preserve">Units of measure: constant 2016 US$</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 72</t>
+    <t xml:space="preserve">Source: 74</t>
   </si>
   <si>
     <t xml:space="preserve">Source-link: 1</t>

--- a/user-data/oda-per-poor-person-constant/oda-per-poor-person-constant.xlsx
+++ b/user-data/oda-per-poor-person-constant/oda-per-poor-person-constant.xlsx
@@ -1150,7 +1150,7 @@
     <t xml:space="preserve">Units of measure: constant 2016 US$</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 71</t>
+    <t xml:space="preserve">Source: 74</t>
   </si>
   <si>
     <t xml:space="preserve">Source-link: 1</t>

--- a/user-data/oda-per-poor-person-constant/oda-per-poor-person-constant.xlsx
+++ b/user-data/oda-per-poor-person-constant/oda-per-poor-person-constant.xlsx
@@ -1150,7 +1150,7 @@
     <t xml:space="preserve">Units of measure: constant 2016 US$</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 74</t>
+    <t xml:space="preserve">Source: 73</t>
   </si>
   <si>
     <t xml:space="preserve">Source-link: 1</t>
